--- a/Documentacion/CasosDeUso/Casos de uso real Administrador.xlsx
+++ b/Documentacion/CasosDeUso/Casos de uso real Administrador.xlsx
@@ -4,17 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="441"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="615"/>
   </bookViews>
   <sheets>
-    <sheet name="PLANTILLA" sheetId="1" r:id="rId1"/>
+    <sheet name="CU Crear Historia Clinica" sheetId="11" r:id="rId1"/>
+    <sheet name="CU Deshabilitar Paciente" sheetId="10" r:id="rId2"/>
+    <sheet name="CU Deshabilitar Medico" sheetId="8" r:id="rId3"/>
+    <sheet name="CU Modificar Paciente" sheetId="7" r:id="rId4"/>
+    <sheet name="CU Modificar Medico" sheetId="6" r:id="rId5"/>
+    <sheet name="CU Consultar Paciente" sheetId="5" r:id="rId6"/>
+    <sheet name="CU Consultar Medico" sheetId="4" r:id="rId7"/>
+    <sheet name="CU Agregar Paciente" sheetId="3" r:id="rId8"/>
+    <sheet name="CU Agregar Medico" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="88">
   <si>
     <t>RFH-001</t>
   </si>
@@ -1662,1174 +1670,2521 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:F166"/>
+  <dimension ref="C2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="10.7109375"/>
-    <col min="5" max="5" width="48.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="30">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45">
+      <c r="E11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="E12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="30">
+      <c r="E14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30">
+      <c r="E15" s="15"/>
+      <c r="F15" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="30">
+      <c r="E16" s="15"/>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="60">
+      <c r="E18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="105.75" thickBot="1">
+      <c r="E19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:F38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="30">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45">
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="30">
+      <c r="E14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30">
+      <c r="E15" s="15"/>
+      <c r="F15" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="30">
+      <c r="E16" s="15"/>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="60">
+      <c r="E18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="30">
+      <c r="E25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="E26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="E27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="E28" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="E29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="45">
+      <c r="E30" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="30">
+      <c r="E31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="30">
+      <c r="E32" s="15"/>
+      <c r="F32" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="30">
+      <c r="E33" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="30">
+      <c r="E34" s="15"/>
+      <c r="F34" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="30">
+      <c r="E35" s="15"/>
+      <c r="F35" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="60">
+      <c r="E37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" ht="105.75" thickBot="1">
+      <c r="E38" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E28:F28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:F19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="30">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45">
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="30">
+      <c r="E14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30">
+      <c r="E15" s="15"/>
+      <c r="F15" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="30">
+      <c r="E16" s="15"/>
+      <c r="F16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="60">
+      <c r="E18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="105.75" thickBot="1">
+      <c r="E19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:F20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="45">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45">
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="30">
+      <c r="E14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30">
+      <c r="E15" s="15"/>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="45">
+      <c r="E16" s="15"/>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="30">
+      <c r="E17" s="15"/>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="105">
+      <c r="E19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="105.75" thickBot="1">
+      <c r="E20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:F20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="45">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45">
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="30">
+      <c r="E14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30">
+      <c r="E15" s="15"/>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="45">
+      <c r="E16" s="15"/>
+      <c r="F16" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="30">
+      <c r="E17" s="15"/>
+      <c r="F17" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" ht="105">
+      <c r="E19" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" ht="105.75" thickBot="1">
+      <c r="E20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:F16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45">
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="60">
+      <c r="E15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:F16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="30">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45">
+      <c r="E11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="60">
+      <c r="E15" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:F18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="30">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="45">
+      <c r="E11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="30">
+      <c r="E12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="30">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="60">
+      <c r="E14" s="15"/>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30">
+      <c r="E15" s="16"/>
+      <c r="F15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="90">
+      <c r="E17" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" ht="135.75" thickBot="1">
+      <c r="E18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:F165"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375"/>
+    <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="4" spans="3:6">
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>79</v>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:6">
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="30">
+    <row r="6" spans="3:6" ht="30">
+      <c r="E6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
       <c r="E7" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="E8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="E9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="14.85" customHeight="1">
-      <c r="E10" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="E11" s="10" t="s">
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="3:6" ht="30">
+      <c r="E11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="12" spans="3:6" ht="30">
-      <c r="E12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="30">
-      <c r="E13" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="13" spans="3:6">
+      <c r="E13" s="15"/>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="45">
       <c r="E14" s="15"/>
       <c r="F14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="45">
-      <c r="E15" s="15"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="30">
+      <c r="E15" s="16"/>
       <c r="F15" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="30">
-      <c r="E16" s="16"/>
-      <c r="F16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
-      <c r="E17" s="6" t="s">
+    <row r="16" spans="3:6">
+      <c r="E16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="60">
-      <c r="E18" s="17" t="s">
+    <row r="17" spans="3:6" ht="60">
+      <c r="E17" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="105.75" thickBot="1">
-      <c r="E19" s="18" t="s">
+    <row r="18" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="20" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="22" spans="3:6">
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>80</v>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="E23" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="E24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="30">
+    <row r="24" spans="3:6" ht="30">
+      <c r="E24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
       <c r="E25" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="E26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>14</v>
+      <c r="E26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="E27" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="E27" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="E28" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="E29" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="29" spans="3:6" ht="30">
+      <c r="E29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="30" spans="3:6" ht="30">
-      <c r="E30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" ht="30">
-      <c r="E31" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F30" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
+    <row r="31" spans="3:6">
+      <c r="E31" s="15"/>
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="45">
       <c r="E32" s="15"/>
       <c r="F32" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="45">
-      <c r="E33" s="15"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="30">
+      <c r="E33" s="16"/>
       <c r="F33" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="30">
-      <c r="E34" s="16"/>
-      <c r="F34" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
-      <c r="E35" s="6" t="s">
+    <row r="34" spans="3:6">
+      <c r="E34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="60">
-      <c r="E36" s="17" t="s">
+    <row r="35" spans="3:6" ht="60">
+      <c r="E35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="105.75" thickBot="1">
-      <c r="E37" s="18" t="s">
+    <row r="36" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E36" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F36" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="38" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="39" spans="3:6">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="40" spans="3:6">
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>81</v>
+      <c r="E40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="E41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="30">
+      <c r="E42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="E43" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="E44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="E45" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="E46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="45">
+      <c r="E47" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="30">
+      <c r="E48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="30">
+      <c r="E49" s="15"/>
+      <c r="F49" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="E50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="60">
+      <c r="E51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E52" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="55" spans="3:6">
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="E56" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F56" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="E42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="30">
-      <c r="E43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="E44" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="E45" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="E46" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="26"/>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="E47" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="45">
-      <c r="E48" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="30">
-      <c r="E49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="30">
-      <c r="E50" s="15"/>
-      <c r="F50" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="E51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="60">
-      <c r="E52" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="105.75" thickBot="1">
-      <c r="E53" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="56" spans="3:6">
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="57" spans="3:6">
       <c r="E57" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="3:6">
-      <c r="E58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>31</v>
+      <c r="E58" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="3:6">
       <c r="E59" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="3:6">
-      <c r="E60" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>14</v>
+      <c r="E60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="3:6">
-      <c r="E61" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="E61" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="26"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="E62" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="3:6">
-      <c r="E63" s="10" t="s">
+      <c r="E62" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F62" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="45">
-      <c r="E64" s="22" t="s">
+    <row r="63" spans="3:6" ht="45">
+      <c r="E63" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="F63" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="30">
+      <c r="E64" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F64" s="14" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="30">
-      <c r="E65" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="30">
-      <c r="E66" s="15"/>
-      <c r="F66" s="5" t="s">
+      <c r="E65" s="15"/>
+      <c r="F65" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="3:6">
-      <c r="E67" s="6" t="s">
+    <row r="66" spans="3:6">
+      <c r="E66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="60">
-      <c r="E68" s="17" t="s">
+    <row r="67" spans="3:6" ht="60">
+      <c r="E67" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="105.75" thickBot="1">
-      <c r="E69" s="18" t="s">
+    <row r="68" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E68" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F68" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="70" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="71" spans="3:6">
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="72" spans="3:6">
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>83</v>
+      <c r="E72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="3:6">
       <c r="E73" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="E74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="45">
+    <row r="74" spans="3:6" ht="45">
+      <c r="E74" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6">
       <c r="E75" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="3:6">
-      <c r="E76" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>14</v>
+      <c r="E76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="3:6">
-      <c r="E77" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="E77" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" s="26"/>
     </row>
     <row r="78" spans="3:6">
-      <c r="E78" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="26"/>
-    </row>
-    <row r="79" spans="3:6">
-      <c r="E79" s="10" t="s">
+      <c r="E78" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="45">
-      <c r="E80" s="22" t="s">
+    <row r="79" spans="3:6" ht="45">
+      <c r="E79" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="F79" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" ht="30">
+      <c r="E80" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F80" s="14" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="3:6" ht="30">
-      <c r="E81" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>17</v>
+      <c r="E81" s="15"/>
+      <c r="F81" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="3:6" ht="30">
-      <c r="E82" s="15"/>
-      <c r="F82" s="5" t="s">
-        <v>36</v>
+      <c r="E82" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="3:6" ht="30">
-      <c r="E83" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" ht="30">
+      <c r="E83" s="15"/>
+      <c r="F83" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" ht="45">
       <c r="E84" s="15"/>
       <c r="F84" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" ht="30">
       <c r="E85" s="15"/>
       <c r="F85" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" ht="30">
-      <c r="E86" s="15"/>
-      <c r="F86" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="3:6">
-      <c r="E87" s="6" t="s">
+    <row r="86" spans="3:6">
+      <c r="E86" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="24" t="s">
+      <c r="F86" s="24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="88" spans="3:6" ht="105">
-      <c r="E88" s="17" t="s">
+    <row r="87" spans="3:6" ht="105">
+      <c r="E87" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="105.75" thickBot="1">
-      <c r="E89" s="18" t="s">
+    <row r="88" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E88" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="F88" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="90" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="91" spans="3:6">
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="92" spans="3:6">
-      <c r="C92">
-        <v>6</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>84</v>
+      <c r="E92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="3:6">
       <c r="E93" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="E94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="45">
+    <row r="94" spans="3:6" ht="45">
+      <c r="E94" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6">
       <c r="E95" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="3:6">
-      <c r="E96" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>14</v>
+      <c r="E96" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="3:6">
-      <c r="E97" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="E97" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="26"/>
     </row>
     <row r="98" spans="3:6">
-      <c r="E98" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F98" s="26"/>
-    </row>
-    <row r="99" spans="3:6">
-      <c r="E99" s="10" t="s">
+      <c r="E98" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="45">
-      <c r="E100" s="22" t="s">
+    <row r="99" spans="3:6" ht="45">
+      <c r="E99" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="F99" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" ht="30">
+      <c r="E100" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F100" s="14" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="3:6" ht="30">
-      <c r="E101" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>17</v>
+      <c r="E101" s="15"/>
+      <c r="F101" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="3:6" ht="30">
-      <c r="E102" s="15"/>
-      <c r="F102" s="5" t="s">
-        <v>41</v>
+      <c r="E102" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="103" spans="3:6" ht="30">
-      <c r="E103" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6" ht="30">
+      <c r="E103" s="15"/>
+      <c r="F103" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6" ht="45">
       <c r="E104" s="15"/>
       <c r="F104" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" ht="45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" ht="30">
       <c r="E105" s="15"/>
       <c r="F105" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6" ht="30">
-      <c r="E106" s="15"/>
-      <c r="F106" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="3:6">
-      <c r="E107" s="6" t="s">
+    <row r="106" spans="3:6">
+      <c r="E106" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F107" s="24" t="s">
+      <c r="F106" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="105">
-      <c r="E108" s="17" t="s">
+    <row r="107" spans="3:6" ht="105">
+      <c r="E107" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="105.75" thickBot="1">
-      <c r="E109" s="18" t="s">
+    <row r="108" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E108" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F109" s="23" t="s">
+      <c r="F108" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="110" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="111" spans="3:6">
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="112" spans="3:6">
-      <c r="C112">
-        <v>7</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>85</v>
+      <c r="E112" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="5:6">
       <c r="E113" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6">
-      <c r="E114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="5:6" ht="30">
+    <row r="114" spans="5:6" ht="30">
+      <c r="E114" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6">
       <c r="E115" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="5:6">
-      <c r="E116" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>14</v>
+      <c r="E116" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="5:6">
-      <c r="E117" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="E117" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117" s="26"/>
     </row>
     <row r="118" spans="5:6">
-      <c r="E118" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="26"/>
-    </row>
-    <row r="119" spans="5:6">
-      <c r="E119" s="10" t="s">
+      <c r="E118" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F118" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="5:6" ht="45">
-      <c r="E120" s="22" t="s">
+    <row r="119" spans="5:6" ht="45">
+      <c r="E119" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="F119" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" ht="30">
+      <c r="E120" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F120" s="14" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="5:6" ht="30">
-      <c r="E121" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F121" s="14" t="s">
-        <v>17</v>
+      <c r="E121" s="15"/>
+      <c r="F121" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="122" spans="5:6" ht="30">
-      <c r="E122" s="15"/>
+      <c r="E122" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F122" s="5" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="5:6" ht="30">
-      <c r="E123" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="E123" s="15"/>
       <c r="F123" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="5:6" ht="30">
       <c r="E124" s="15"/>
       <c r="F124" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="125" spans="5:6" ht="30">
-      <c r="E125" s="15"/>
-      <c r="F125" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="126" spans="5:6">
-      <c r="E126" s="6" t="s">
+    <row r="125" spans="5:6">
+      <c r="E125" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F125" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="127" spans="5:6" ht="60">
-      <c r="E127" s="17" t="s">
+    <row r="126" spans="5:6" ht="60">
+      <c r="E126" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F126" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="5:6" ht="105.75" thickBot="1">
-      <c r="E128" s="18" t="s">
+    <row r="127" spans="5:6" ht="105.75" thickBot="1">
+      <c r="E127" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F128" s="23" t="s">
+      <c r="F127" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="129" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="130" spans="3:6">
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="131" spans="3:6">
-      <c r="C131">
-        <v>8</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>86</v>
+      <c r="E131" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="3:6">
       <c r="E132" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="3:6">
-      <c r="E133" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="3:6" ht="30">
+    <row r="133" spans="3:6" ht="30">
+      <c r="E133" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6">
       <c r="E134" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="3:6">
-      <c r="E135" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>14</v>
+      <c r="E135" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="3:6">
-      <c r="E136" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="E136" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="26"/>
     </row>
     <row r="137" spans="3:6">
-      <c r="E137" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F137" s="26"/>
-    </row>
-    <row r="138" spans="3:6">
-      <c r="E138" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F138" s="11" t="s">
+      <c r="F137" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="3:6" ht="45">
-      <c r="E139" s="22" t="s">
+    <row r="138" spans="3:6" ht="45">
+      <c r="E138" s="22" t="s">
         <v>34</v>
       </c>
+      <c r="F138" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" ht="30">
+      <c r="E139" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F139" s="14" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="3:6" ht="30">
-      <c r="E140" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>17</v>
+      <c r="E140" s="15"/>
+      <c r="F140" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="3:6" ht="30">
-      <c r="E141" s="15"/>
+      <c r="E141" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="F141" s="5" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="3:6" ht="30">
-      <c r="E142" s="12" t="s">
-        <v>77</v>
-      </c>
+      <c r="E142" s="15"/>
       <c r="F142" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="3:6" ht="30">
       <c r="E143" s="15"/>
       <c r="F143" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6" ht="30">
-      <c r="E144" s="15"/>
-      <c r="F144" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="145" spans="3:6">
-      <c r="E145" s="6" t="s">
+    <row r="144" spans="3:6">
+      <c r="E144" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F145" s="24" t="s">
+      <c r="F144" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="3:6" ht="60">
-      <c r="E146" s="17" t="s">
+    <row r="145" spans="3:6" ht="60">
+      <c r="E145" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F145" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="147" spans="3:6" ht="105.75" thickBot="1">
-      <c r="E147" s="18" t="s">
+    <row r="146" spans="3:6" ht="105.75" thickBot="1">
+      <c r="E146" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F147" s="23" t="s">
+      <c r="F146" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="149" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="148" spans="3:6" ht="15.75" thickBot="1"/>
+    <row r="149" spans="3:6">
+      <c r="C149">
+        <v>9</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="150" spans="3:6">
-      <c r="C150">
-        <v>9</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>87</v>
+      <c r="E150" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="3:6">
       <c r="E151" s="4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="3:6">
-      <c r="E152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F152" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="3:6" ht="30">
+    <row r="152" spans="3:6" ht="30">
+      <c r="E152" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6">
       <c r="E153" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="3:6">
-      <c r="E154" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>14</v>
+      <c r="E154" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="3:6">
-      <c r="E155" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="E155" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="26"/>
     </row>
     <row r="156" spans="3:6">
-      <c r="E156" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F156" s="26"/>
-    </row>
-    <row r="157" spans="3:6">
-      <c r="E157" s="10" t="s">
+      <c r="E156" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F157" s="11" t="s">
+      <c r="F156" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="3:6" ht="45">
-      <c r="E158" s="22" t="s">
+    <row r="157" spans="3:6" ht="45">
+      <c r="E157" s="22" t="s">
         <v>62</v>
       </c>
+      <c r="F157" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" ht="30">
+      <c r="E158" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F158" s="14" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="3:6" ht="30">
-      <c r="E159" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>17</v>
+      <c r="E159" s="15"/>
+      <c r="F159" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="3:6" ht="30">
-      <c r="E160" s="15"/>
+      <c r="E160" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="F160" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="161" spans="5:6" ht="30">
-      <c r="E161" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="E161" s="15"/>
       <c r="F161" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="162" spans="5:6" ht="30">
       <c r="E162" s="15"/>
       <c r="F162" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="163" spans="5:6" ht="30">
-      <c r="E163" s="15"/>
-      <c r="F163" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="164" spans="5:6">
-      <c r="E164" s="6" t="s">
+    <row r="163" spans="5:6">
+      <c r="E163" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F164" s="24" t="s">
+      <c r="F163" s="24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="5:6" ht="60">
-      <c r="E165" s="17" t="s">
+    <row r="164" spans="5:6" ht="60">
+      <c r="E164" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F164" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="5:6" ht="105.75" thickBot="1">
-      <c r="E166" s="18" t="s">
+    <row r="165" spans="5:6" ht="105.75" thickBot="1">
+      <c r="E165" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="23" t="s">
+      <c r="F165" s="23" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E117:F117"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E97:F97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentacion/CasosDeUso/Casos de uso real Administrador.xlsx
+++ b/Documentacion/CasosDeUso/Casos de uso real Administrador.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="615"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="96">
   <si>
     <t>RFH-001</t>
   </si>
@@ -1058,13 +1058,37 @@
       </rPr>
       <t xml:space="preserve"> CU Crear Historia Clinica</t>
     </r>
+  </si>
+  <si>
+    <t>RFH-002</t>
+  </si>
+  <si>
+    <t>RFH-003</t>
+  </si>
+  <si>
+    <t>RFH-004</t>
+  </si>
+  <si>
+    <t>RFH-005</t>
+  </si>
+  <si>
+    <t>RFH-006</t>
+  </si>
+  <si>
+    <t>RFH-007</t>
+  </si>
+  <si>
+    <t>RFH-008</t>
+  </si>
+  <si>
+    <t>RFH-009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1460,6 +1484,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1494,6 +1519,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1669,33 +1695,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E3" sqref="E3:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1703,7 +1729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="30">
+    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1719,7 +1745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1727,7 +1753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1735,13 +1761,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -1749,7 +1775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45">
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="22" t="s">
         <v>62</v>
       </c>
@@ -1757,7 +1783,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>65</v>
       </c>
@@ -1765,13 +1791,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="30">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="30">
+    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="12" t="s">
         <v>67</v>
       </c>
@@ -1779,19 +1805,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="30">
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="15"/>
       <c r="F15" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="30">
+    <row r="16" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="15"/>
       <c r="F16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="60">
+    <row r="18" spans="5:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E18" s="17" t="s">
         <v>8</v>
       </c>
@@ -1807,7 +1833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="105.75" thickBot="1">
+    <row r="19" spans="5:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="18" t="s">
         <v>9</v>
       </c>
@@ -1825,33 +1851,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1859,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -1867,7 +1893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="30">
+    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1875,7 +1901,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1883,7 +1909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -1891,13 +1917,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +1931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45">
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="22" t="s">
         <v>34</v>
       </c>
@@ -1913,7 +1939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
@@ -1921,13 +1947,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="30">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="30">
+    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="12" t="s">
         <v>77</v>
       </c>
@@ -1935,19 +1961,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="30">
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="15"/>
       <c r="F15" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="30">
+    <row r="16" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="15"/>
       <c r="F16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +1981,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="60">
+    <row r="18" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E18" s="17" t="s">
         <v>8</v>
       </c>
@@ -1963,7 +1989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="105.75" thickBot="1">
+    <row r="19" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="18" t="s">
         <v>9</v>
       </c>
@@ -1971,8 +1997,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="22" spans="3:6">
+    <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>9</v>
       </c>
@@ -1983,7 +2009,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
@@ -1991,7 +2017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
@@ -1999,7 +2025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="30">
+    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
         <v>1</v>
       </c>
@@ -2007,7 +2033,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2015,7 +2041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E27" s="8" t="s">
         <v>3</v>
       </c>
@@ -2023,13 +2049,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E28" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="26"/>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E29" s="10" t="s">
         <v>5</v>
       </c>
@@ -2037,7 +2063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="45">
+    <row r="30" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E30" s="22" t="s">
         <v>62</v>
       </c>
@@ -2045,7 +2071,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="30">
+    <row r="31" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E31" s="4" t="s">
         <v>65</v>
       </c>
@@ -2053,13 +2079,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="30">
+    <row r="32" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E32" s="15"/>
       <c r="F32" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="30">
+    <row r="33" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E33" s="12" t="s">
         <v>67</v>
       </c>
@@ -2067,19 +2093,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="5:6" ht="30">
+    <row r="34" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E34" s="15"/>
       <c r="F34" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="30">
+    <row r="35" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E35" s="15"/>
       <c r="F35" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="5:6">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="6" t="s">
         <v>7</v>
       </c>
@@ -2087,7 +2113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="5:6" ht="60">
+    <row r="37" spans="5:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E37" s="17" t="s">
         <v>8</v>
       </c>
@@ -2095,7 +2121,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="5:6" ht="105.75" thickBot="1">
+    <row r="38" spans="5:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" s="18" t="s">
         <v>9</v>
       </c>
@@ -2114,33 +2140,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -2148,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="30">
+    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -2164,7 +2190,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2172,7 +2198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2180,13 +2206,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45">
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="22" t="s">
         <v>34</v>
       </c>
@@ -2202,7 +2228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2210,13 +2236,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="30">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="30">
+    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="12" t="s">
         <v>57</v>
       </c>
@@ -2224,19 +2250,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="30">
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="15"/>
       <c r="F15" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="30">
+    <row r="16" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="15"/>
       <c r="F16" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="5:6">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="60">
+    <row r="18" spans="5:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E18" s="17" t="s">
         <v>8</v>
       </c>
@@ -2252,7 +2278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="105.75" thickBot="1">
+    <row r="19" spans="5:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="18" t="s">
         <v>9</v>
       </c>
@@ -2270,33 +2296,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E3" sqref="E3:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -2304,7 +2330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2312,7 +2338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="45">
+    <row r="6" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -2320,7 +2346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2336,13 +2362,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45">
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="22" t="s">
         <v>34</v>
       </c>
@@ -2358,7 +2384,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2366,13 +2392,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="30">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="30">
+    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="12" t="s">
         <v>53</v>
       </c>
@@ -2380,25 +2406,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="30">
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="15"/>
       <c r="F15" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="45">
+    <row r="16" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E16" s="15"/>
       <c r="F16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="30">
+    <row r="17" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="15"/>
       <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="6" t="s">
         <v>7</v>
       </c>
@@ -2406,7 +2432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="105">
+    <row r="19" spans="5:6" ht="105" x14ac:dyDescent="0.25">
       <c r="E19" s="17" t="s">
         <v>8</v>
       </c>
@@ -2414,7 +2440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="5:6" ht="105.75" thickBot="1">
+    <row r="20" spans="5:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="18" t="s">
         <v>9</v>
       </c>
@@ -2432,33 +2458,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -2466,7 +2492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2474,7 +2500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="45">
+    <row r="6" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -2482,7 +2508,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2490,7 +2516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2498,13 +2524,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2512,7 +2538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45">
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="22" t="s">
         <v>34</v>
       </c>
@@ -2520,7 +2546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2528,13 +2554,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="30">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="30">
+    <row r="14" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E14" s="12" t="s">
         <v>53</v>
       </c>
@@ -2542,25 +2568,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="30">
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="15"/>
       <c r="F15" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="45">
+    <row r="16" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E16" s="15"/>
       <c r="F16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="30">
+    <row r="17" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="15"/>
       <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="5:6">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="6" t="s">
         <v>7</v>
       </c>
@@ -2568,7 +2594,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="5:6" ht="105">
+    <row r="19" spans="5:6" ht="105" x14ac:dyDescent="0.25">
       <c r="E19" s="17" t="s">
         <v>8</v>
       </c>
@@ -2576,7 +2602,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="5:6" ht="105.75" thickBot="1">
+    <row r="20" spans="5:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="18" t="s">
         <v>9</v>
       </c>
@@ -2594,33 +2620,33 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -2628,7 +2654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2636,7 +2662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -2644,7 +2670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2652,7 +2678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2660,13 +2686,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2674,7 +2700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45">
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="22" t="s">
         <v>34</v>
       </c>
@@ -2682,7 +2708,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2690,13 +2716,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="30">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
@@ -2704,7 +2730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="60">
+    <row r="15" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E15" s="17" t="s">
         <v>8</v>
       </c>
@@ -2712,7 +2738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="105.75" thickBot="1">
+    <row r="16" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="18" t="s">
         <v>9</v>
       </c>
@@ -2730,33 +2756,33 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -2764,7 +2790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2772,7 +2798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="30">
+    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -2780,7 +2806,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2796,13 +2822,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2810,7 +2836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45">
+    <row r="11" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E11" s="22" t="s">
         <v>34</v>
       </c>
@@ -2818,7 +2844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2826,13 +2852,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="30">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E14" s="6" t="s">
         <v>7</v>
       </c>
@@ -2840,7 +2866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="60">
+    <row r="15" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E15" s="17" t="s">
         <v>8</v>
       </c>
@@ -2848,7 +2874,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="105.75" thickBot="1">
+    <row r="16" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="18" t="s">
         <v>9</v>
       </c>
@@ -2866,33 +2892,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -2900,7 +2926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2908,7 +2934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="30">
+    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -2916,7 +2942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2924,7 +2950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2932,13 +2958,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -2946,7 +2972,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="45">
+    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E11" s="12" t="s">
         <v>25</v>
       </c>
@@ -2954,7 +2980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2962,25 +2988,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="30">
+    <row r="13" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="60">
+    <row r="14" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E14" s="15"/>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="30">
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="16"/>
       <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E16" s="6" t="s">
         <v>7</v>
       </c>
@@ -2988,7 +3014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="5:6" ht="90">
+    <row r="17" spans="5:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E17" s="17" t="s">
         <v>8</v>
       </c>
@@ -2996,7 +3022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="5:6" ht="135.75" thickBot="1">
+    <row r="18" spans="5:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="18" t="s">
         <v>9</v>
       </c>
@@ -3014,14 +3040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F165"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E3" sqref="E3:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.7109375"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
@@ -3031,8 +3057,8 @@
     <col min="7" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="3:6">
+    <row r="2" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -3043,7 +3069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="3:6">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
@@ -3051,7 +3077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3059,7 +3085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="30">
+    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
@@ -3067,7 +3093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
@@ -3075,7 +3101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E8" s="8" t="s">
         <v>3</v>
       </c>
@@ -3083,13 +3109,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="26"/>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>5</v>
       </c>
@@ -3097,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="30">
+    <row r="11" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
@@ -3105,7 +3131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="30">
+    <row r="12" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="4" t="s">
         <v>44</v>
       </c>
@@ -3113,25 +3139,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E13" s="15"/>
       <c r="F13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="45">
+    <row r="14" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E14" s="15"/>
       <c r="F14" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="30">
+    <row r="15" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="16"/>
       <c r="F15" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3139,7 +3165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="60">
+    <row r="17" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E17" s="17" t="s">
         <v>8</v>
       </c>
@@ -3147,7 +3173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="105.75" thickBot="1">
+    <row r="18" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="18" t="s">
         <v>9</v>
       </c>
@@ -3155,8 +3181,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="21" spans="3:6">
+    <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>2</v>
       </c>
@@ -3167,7 +3193,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
@@ -3175,7 +3201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E23" s="4" t="s">
         <v>11</v>
       </c>
@@ -3183,7 +3209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="30">
+    <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>1</v>
       </c>
@@ -3191,7 +3217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E25" s="6" t="s">
         <v>2</v>
       </c>
@@ -3199,7 +3225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E26" s="8" t="s">
         <v>3</v>
       </c>
@@ -3207,13 +3233,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E27" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E28" s="10" t="s">
         <v>5</v>
       </c>
@@ -3221,7 +3247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="3:6" ht="30">
+    <row r="29" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E29" s="12" t="s">
         <v>25</v>
       </c>
@@ -3229,7 +3255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:6" ht="30">
+    <row r="30" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E30" s="4" t="s">
         <v>44</v>
       </c>
@@ -3237,25 +3263,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E31" s="15"/>
       <c r="F31" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="45">
+    <row r="32" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E32" s="15"/>
       <c r="F32" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="30">
+    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E33" s="16"/>
       <c r="F33" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E34" s="6" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="60">
+    <row r="35" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E35" s="17" t="s">
         <v>8</v>
       </c>
@@ -3271,7 +3297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="105.75" thickBot="1">
+    <row r="36" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E36" s="18" t="s">
         <v>9</v>
       </c>
@@ -3279,8 +3305,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="39" spans="3:6">
+    <row r="38" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>3</v>
       </c>
@@ -3291,7 +3317,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E40" s="4" t="s">
         <v>30</v>
       </c>
@@ -3299,7 +3325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:6">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E41" s="4" t="s">
         <v>11</v>
       </c>
@@ -3307,7 +3333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="30">
+    <row r="42" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E42" s="6" t="s">
         <v>1</v>
       </c>
@@ -3315,7 +3341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="3:6">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3323,7 +3349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:6">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E44" s="8" t="s">
         <v>3</v>
       </c>
@@ -3331,13 +3357,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="3:6">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E45" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="26"/>
     </row>
-    <row r="46" spans="3:6">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E46" s="10" t="s">
         <v>5</v>
       </c>
@@ -3345,7 +3371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="45">
+    <row r="47" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E47" s="22" t="s">
         <v>34</v>
       </c>
@@ -3353,7 +3379,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="30">
+    <row r="48" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>44</v>
       </c>
@@ -3361,13 +3387,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="30">
+    <row r="49" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E49" s="15"/>
       <c r="F49" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="3:6">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E50" s="6" t="s">
         <v>7</v>
       </c>
@@ -3375,7 +3401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="60">
+    <row r="51" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E51" s="17" t="s">
         <v>8</v>
       </c>
@@ -3383,7 +3409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="105.75" thickBot="1">
+    <row r="52" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="18" t="s">
         <v>9</v>
       </c>
@@ -3391,8 +3417,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="55" spans="3:6">
+    <row r="54" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>4</v>
       </c>
@@ -3403,7 +3429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="3:6">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E56" s="4" t="s">
         <v>30</v>
       </c>
@@ -3411,7 +3437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:6">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E57" s="4" t="s">
         <v>11</v>
       </c>
@@ -3419,7 +3445,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="3:6">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E58" s="6" t="s">
         <v>1</v>
       </c>
@@ -3427,7 +3453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="3:6">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E59" s="6" t="s">
         <v>2</v>
       </c>
@@ -3435,7 +3461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="3:6">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E60" s="8" t="s">
         <v>3</v>
       </c>
@@ -3443,13 +3469,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="3:6">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E61" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="26"/>
     </row>
-    <row r="62" spans="3:6">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E62" s="10" t="s">
         <v>5</v>
       </c>
@@ -3457,7 +3483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="45">
+    <row r="63" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E63" s="22" t="s">
         <v>34</v>
       </c>
@@ -3465,7 +3491,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="30">
+    <row r="64" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E64" s="4" t="s">
         <v>44</v>
       </c>
@@ -3473,13 +3499,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="30">
+    <row r="65" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E65" s="15"/>
       <c r="F65" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="3:6">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E66" s="6" t="s">
         <v>7</v>
       </c>
@@ -3487,7 +3513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="60">
+    <row r="67" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E67" s="17" t="s">
         <v>8</v>
       </c>
@@ -3495,7 +3521,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="105.75" thickBot="1">
+    <row r="68" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E68" s="18" t="s">
         <v>9</v>
       </c>
@@ -3503,8 +3529,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="71" spans="3:6">
+    <row r="70" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C71">
         <v>5</v>
       </c>
@@ -3515,7 +3541,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="3:6">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E72" s="4" t="s">
         <v>30</v>
       </c>
@@ -3523,7 +3549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="3:6">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E73" s="4" t="s">
         <v>11</v>
       </c>
@@ -3531,7 +3557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="45">
+    <row r="74" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E74" s="6" t="s">
         <v>1</v>
       </c>
@@ -3539,7 +3565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="3:6">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E75" s="6" t="s">
         <v>2</v>
       </c>
@@ -3547,7 +3573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="3:6">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E76" s="8" t="s">
         <v>3</v>
       </c>
@@ -3555,13 +3581,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="3:6">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E77" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="26"/>
     </row>
-    <row r="78" spans="3:6">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E78" s="10" t="s">
         <v>5</v>
       </c>
@@ -3569,7 +3595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="3:6" ht="45">
+    <row r="79" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E79" s="22" t="s">
         <v>34</v>
       </c>
@@ -3577,7 +3603,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="30">
+    <row r="80" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E80" s="4" t="s">
         <v>44</v>
       </c>
@@ -3585,13 +3611,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="30">
+    <row r="81" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E81" s="15"/>
       <c r="F81" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="30">
+    <row r="82" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E82" s="12" t="s">
         <v>53</v>
       </c>
@@ -3599,25 +3625,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="30">
+    <row r="83" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E83" s="15"/>
       <c r="F83" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="3:6" ht="45">
+    <row r="84" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E84" s="15"/>
       <c r="F84" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="3:6" ht="30">
+    <row r="85" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E85" s="15"/>
       <c r="F85" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="3:6">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E86" s="6" t="s">
         <v>7</v>
       </c>
@@ -3625,7 +3651,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="3:6" ht="105">
+    <row r="87" spans="3:6" ht="105" x14ac:dyDescent="0.25">
       <c r="E87" s="17" t="s">
         <v>8</v>
       </c>
@@ -3633,7 +3659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="3:6" ht="105.75" thickBot="1">
+    <row r="88" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E88" s="18" t="s">
         <v>9</v>
       </c>
@@ -3641,8 +3667,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="91" spans="3:6">
+    <row r="90" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C91">
         <v>6</v>
       </c>
@@ -3653,7 +3679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="3:6">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E92" s="4" t="s">
         <v>30</v>
       </c>
@@ -3661,7 +3687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="3:6">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E93" s="4" t="s">
         <v>11</v>
       </c>
@@ -3669,7 +3695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="3:6" ht="45">
+    <row r="94" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E94" s="6" t="s">
         <v>1</v>
       </c>
@@ -3677,7 +3703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="3:6">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E95" s="6" t="s">
         <v>2</v>
       </c>
@@ -3685,7 +3711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="3:6">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E96" s="8" t="s">
         <v>3</v>
       </c>
@@ -3693,13 +3719,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="3:6">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E97" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="26"/>
     </row>
-    <row r="98" spans="3:6">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E98" s="10" t="s">
         <v>5</v>
       </c>
@@ -3707,7 +3733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="45">
+    <row r="99" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E99" s="22" t="s">
         <v>34</v>
       </c>
@@ -3715,7 +3741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="30">
+    <row r="100" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E100" s="4" t="s">
         <v>44</v>
       </c>
@@ -3723,13 +3749,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="3:6" ht="30">
+    <row r="101" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E101" s="15"/>
       <c r="F101" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="3:6" ht="30">
+    <row r="102" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E102" s="12" t="s">
         <v>53</v>
       </c>
@@ -3737,25 +3763,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="30">
+    <row r="103" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E103" s="15"/>
       <c r="F103" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="45">
+    <row r="104" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E104" s="15"/>
       <c r="F104" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="105" spans="3:6" ht="30">
+    <row r="105" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E105" s="15"/>
       <c r="F105" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="3:6">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E106" s="6" t="s">
         <v>7</v>
       </c>
@@ -3763,7 +3789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="3:6" ht="105">
+    <row r="107" spans="3:6" ht="105" x14ac:dyDescent="0.25">
       <c r="E107" s="17" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="105.75" thickBot="1">
+    <row r="108" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E108" s="18" t="s">
         <v>9</v>
       </c>
@@ -3779,8 +3805,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="111" spans="3:6">
+    <row r="110" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C111">
         <v>7</v>
       </c>
@@ -3791,7 +3817,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="3:6">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E112" s="4" t="s">
         <v>30</v>
       </c>
@@ -3799,7 +3825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="5:6">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113" s="4" t="s">
         <v>11</v>
       </c>
@@ -3807,7 +3833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="5:6" ht="30">
+    <row r="114" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E114" s="6" t="s">
         <v>1</v>
       </c>
@@ -3815,7 +3841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="115" spans="5:6">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E115" s="6" t="s">
         <v>2</v>
       </c>
@@ -3823,7 +3849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="5:6">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E116" s="8" t="s">
         <v>3</v>
       </c>
@@ -3831,13 +3857,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="5:6">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E117" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="5:6">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E118" s="10" t="s">
         <v>5</v>
       </c>
@@ -3845,7 +3871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="5:6" ht="45">
+    <row r="119" spans="5:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E119" s="22" t="s">
         <v>34</v>
       </c>
@@ -3853,7 +3879,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="120" spans="5:6" ht="30">
+    <row r="120" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E120" s="4" t="s">
         <v>44</v>
       </c>
@@ -3861,13 +3887,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="5:6" ht="30">
+    <row r="121" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E121" s="15"/>
       <c r="F121" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="5:6" ht="30">
+    <row r="122" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E122" s="12" t="s">
         <v>57</v>
       </c>
@@ -3875,19 +3901,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="5:6" ht="30">
+    <row r="123" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E123" s="15"/>
       <c r="F123" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="5:6" ht="30">
+    <row r="124" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E124" s="15"/>
       <c r="F124" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="5:6">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125" s="6" t="s">
         <v>7</v>
       </c>
@@ -3895,7 +3921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="5:6" ht="60">
+    <row r="126" spans="5:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E126" s="17" t="s">
         <v>8</v>
       </c>
@@ -3903,7 +3929,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="127" spans="5:6" ht="105.75" thickBot="1">
+    <row r="127" spans="5:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E127" s="18" t="s">
         <v>9</v>
       </c>
@@ -3911,8 +3937,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="130" spans="3:6">
+    <row r="129" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>8</v>
       </c>
@@ -3923,7 +3949,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="3:6">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E131" s="4" t="s">
         <v>30</v>
       </c>
@@ -3931,7 +3957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="3:6">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E132" s="4" t="s">
         <v>11</v>
       </c>
@@ -3939,7 +3965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="3:6" ht="30">
+    <row r="133" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E133" s="6" t="s">
         <v>1</v>
       </c>
@@ -3947,7 +3973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="3:6">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E134" s="6" t="s">
         <v>2</v>
       </c>
@@ -3955,7 +3981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="3:6">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E135" s="8" t="s">
         <v>3</v>
       </c>
@@ -3963,13 +3989,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="3:6">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E136" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F136" s="26"/>
     </row>
-    <row r="137" spans="3:6">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E137" s="10" t="s">
         <v>5</v>
       </c>
@@ -3977,7 +4003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="3:6" ht="45">
+    <row r="138" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E138" s="22" t="s">
         <v>34</v>
       </c>
@@ -3985,7 +4011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="3:6" ht="30">
+    <row r="139" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E139" s="4" t="s">
         <v>44</v>
       </c>
@@ -3993,13 +4019,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="3:6" ht="30">
+    <row r="140" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E140" s="15"/>
       <c r="F140" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="3:6" ht="30">
+    <row r="141" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E141" s="12" t="s">
         <v>77</v>
       </c>
@@ -4007,19 +4033,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="3:6" ht="30">
+    <row r="142" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E142" s="15"/>
       <c r="F142" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="3:6" ht="30">
+    <row r="143" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E143" s="15"/>
       <c r="F143" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="3:6">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E144" s="6" t="s">
         <v>7</v>
       </c>
@@ -4027,7 +4053,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="3:6" ht="60">
+    <row r="145" spans="3:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E145" s="17" t="s">
         <v>8</v>
       </c>
@@ -4035,7 +4061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="146" spans="3:6" ht="105.75" thickBot="1">
+    <row r="146" spans="3:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E146" s="18" t="s">
         <v>9</v>
       </c>
@@ -4043,8 +4069,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="148" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="149" spans="3:6">
+    <row r="148" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C149">
         <v>9</v>
       </c>
@@ -4055,7 +4081,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="150" spans="3:6">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E150" s="4" t="s">
         <v>30</v>
       </c>
@@ -4063,7 +4089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="3:6">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E151" s="4" t="s">
         <v>11</v>
       </c>
@@ -4071,7 +4097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="3:6" ht="30">
+    <row r="152" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E152" s="6" t="s">
         <v>1</v>
       </c>
@@ -4079,7 +4105,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="153" spans="3:6">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E153" s="6" t="s">
         <v>2</v>
       </c>
@@ -4087,7 +4113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="3:6">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E154" s="8" t="s">
         <v>3</v>
       </c>
@@ -4095,13 +4121,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="3:6">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E155" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F155" s="26"/>
     </row>
-    <row r="156" spans="3:6">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E156" s="10" t="s">
         <v>5</v>
       </c>
@@ -4109,7 +4135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="3:6" ht="45">
+    <row r="157" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="E157" s="22" t="s">
         <v>62</v>
       </c>
@@ -4117,7 +4143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="3:6" ht="30">
+    <row r="158" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E158" s="4" t="s">
         <v>65</v>
       </c>
@@ -4125,13 +4151,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="3:6" ht="30">
+    <row r="159" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E159" s="15"/>
       <c r="F159" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="160" spans="3:6" ht="30">
+    <row r="160" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E160" s="12" t="s">
         <v>67</v>
       </c>
@@ -4139,19 +4165,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="161" spans="5:6" ht="30">
+    <row r="161" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E161" s="15"/>
       <c r="F161" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="5:6" ht="30">
+    <row r="162" spans="5:6" ht="30" x14ac:dyDescent="0.25">
       <c r="E162" s="15"/>
       <c r="F162" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="163" spans="5:6">
+    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E163" s="6" t="s">
         <v>7</v>
       </c>
@@ -4159,7 +4185,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="164" spans="5:6" ht="60">
+    <row r="164" spans="5:6" ht="60" x14ac:dyDescent="0.25">
       <c r="E164" s="17" t="s">
         <v>8</v>
       </c>
@@ -4167,7 +4193,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="5:6" ht="105.75" thickBot="1">
+    <row r="165" spans="5:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E165" s="18" t="s">
         <v>9</v>
       </c>
